--- a/src/test/resources/testcase1.xlsx
+++ b/src/test/resources/testcase1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF99DB31-8803-433A-9314-E35128812A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D23C7B8-BEE7-4061-A30B-28E8524D93C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -84,16 +84,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\xihu_\Desktop\hello.bat</t>
-  </si>
-  <si>
     <t>setProperty</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\xihu_\Desktop\2.json</t>
-  </si>
-  <si>
     <t>json</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,10 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\xihu_\Desktop\3.json</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name,password,age,password1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -242,6 +232,18 @@
   </si>
   <si>
     <t>echo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>download/2.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>download/3.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>download/hello.bat</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -249,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -264,16 +266,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -283,13 +298,133 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -302,17 +437,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,9 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -669,445 +826,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="U1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AC1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="AD1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AF1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="1">
+      <c r="AE3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="1">
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="1">
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="8">
         <v>1</v>
       </c>
     </row>
